--- a/emails/lcsc-emails.xlsx
+++ b/emails/lcsc-emails.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willhwli/Documents/Project/emails-parser/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willhwli/Documents/Project/lcsc-csagent/emails/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E32D609-8390-E447-B38B-D043E323D76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAEFC1B-16A3-6145-A6EA-336606938ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14512,10 +14512,16 @@
   <dimension ref="A1:F510"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F187" sqref="F187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="54">
       <c r="A1" s="1" t="s">
